--- a/data/hh_label.xlsx
+++ b/data/hh_label.xlsx
@@ -5,22 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t xml:space="preserve">video_id</t>
   </si>
@@ -343,31 +343,13 @@
     <t xml:space="preserve">0-16521, 24926-35737, 313612-324085, 385744-385781</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">15048-15111, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">13816-13851</t>
-    </r>
+    <t xml:space="preserve">15048-15111</t>
   </si>
   <si>
     <t xml:space="preserve">2048-2144</t>
   </si>
   <si>
-    <t xml:space="preserve">103971-103988</t>
+    <t xml:space="preserve">13816-13851, 103971-103988</t>
   </si>
   <si>
     <t xml:space="preserve">26_20181220</t>
@@ -428,6 +410,30 @@
   </si>
   <si>
     <t xml:space="preserve">32_20190102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">33_20190103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34_20190110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35_20190114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36_20190115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37_20190117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38_20190119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-7001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">113-137, 160-175, 187-208, 213-231, 247-263, 270-299, 300-327, 382-398, 431-446, 447-468, 538-553, 564-584, 643-794, 858-892, 905-924, 1000-1015, 1069-1093, 1148-1163, 1235-1250, 1261-1278, 1351-1379, 1433-1452, 1529-1550, 1559-1575, 1576-1596, 1600-1624, 1633-1669, 1707-1728, 1746-1783, 2043-2070, 2190-2223, 2256-2338, 2366-2382, 2386-2404, 2412-2451, 2502-2535, 2584-2607, 2615-2648, 2659-2674, 2694-2712, 2739-2774, 2856-2871, 2913-2936, 2986-3019, 3020-3036, 3085-3100, 3110-3125, 3153-3168, 3181-3206, 3272-3294, 3300-3315, 3359-3400, 3401-3416, 3417-3430, 3542-3570, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -460,30 +467,11 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -536,25 +524,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -574,21 +554,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3238866396761"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.9028340080972"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,1001 +616,1145 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>20181107</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M2" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="M2" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N2" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <v>20181112</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M3" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="M3" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>20181116</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N4" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="L4" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M4" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>20181119</v>
       </c>
-      <c r="L5" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N5" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="L5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>20181119</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M6" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N6" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="L6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M6" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N6" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O6" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>20181120</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L7" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M7" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N7" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="L7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>20181121</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M8" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N8" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="L8" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>20181122</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O9" s="0" t="s">
+      <c r="L9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>20181123</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M10" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N10" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="L10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>20181123</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M11" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N11" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="L11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M11" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N11" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>20181126</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N12" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O12" s="0" t="s">
+      <c r="L12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O12" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>20181127</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L13" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M13" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N13" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="L13" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>20181129</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N14" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O14" s="0" t="s">
+      <c r="L14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>20181130</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L15" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M15" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N15" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="L15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N15" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>20181129</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="L16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>20181130</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M17" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N17" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="L17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>20181203</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L18" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M18" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N18" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O18" s="0" t="s">
+      <c r="L18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>20181204</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M19" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N19" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+      <c r="L19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>20181206</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O20" s="0" t="s">
+      <c r="L20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>20181207</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M21" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N21" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="n">
+      <c r="L21" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>20181211</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L22" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M22" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N22" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O22" s="0" t="s">
+      <c r="L22" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>20181214</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L23" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M23" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N23" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="L23" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>20181217</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L24" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M24" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N24" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="L24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>20181218</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L25" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M25" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N25" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="L25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>20181219</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M26" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N26" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O26" s="4" t="s">
+      <c r="L26" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O26" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>20181220</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M27" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N27" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="L27" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>20181224</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M28" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N28" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="n">
+      <c r="L28" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>20181226</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M29" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N29" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O29" s="0" t="s">
+      <c r="L29" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O29" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="n">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>20181227</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="J30" s="0" t="s">
+      <c r="J30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="K30" s="0" t="s">
+      <c r="K30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="L30" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M30" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N30" s="0" t="n">
-        <v>640</v>
-      </c>
-      <c r="O30" s="0" t="s">
+      <c r="L30" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="O30" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="n">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>20181228</v>
       </c>
-      <c r="L31" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M31" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N31" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="n">
+      <c r="L31" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>20181231</v>
       </c>
-      <c r="L32" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M32" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N32" s="0" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="n">
+      <c r="L32" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="D33" s="1" t="n">
         <v>20190102</v>
       </c>
-      <c r="L33" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M33" s="0" t="n">
-        <v>480</v>
-      </c>
-      <c r="N33" s="0" t="n">
+      <c r="L33" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>20190103</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>20190110</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="1" t="n">
+        <v>20190114</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D37" s="1" t="n">
+        <v>20190115</v>
+      </c>
+      <c r="L37" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="1" t="n">
+        <v>20190117</v>
+      </c>
+      <c r="L38" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M38" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>20190119</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="M39" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="N39" s="1" t="n">
         <v>640</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/data/hh_label.xlsx
+++ b/data/hh_label.xlsx
@@ -250,7 +250,7 @@
     <t xml:space="preserve">4300-20286, 45095-54869, 60184-70685, 128089-134436, 146932-162541, 287701-291595</t>
   </si>
   <si>
-    <t xml:space="preserve">7680-7703, 12203-12223, 63984-64005, 64016-64030, 161323-161342</t>
+    <t xml:space="preserve">7680-7703, 12203-12223, 63984-64005, 64016-64031, 161323-161342</t>
   </si>
   <si>
     <t xml:space="preserve">64170-64229</t>
@@ -433,7 +433,7 @@
     <t xml:space="preserve">0-7001</t>
   </si>
   <si>
-    <t xml:space="preserve">113-137, 160-175, 187-208, 213-231, 247-263, 270-299, 300-327, 382-398, 431-446, 447-468, 538-553, 564-584, 643-794, 858-892, 905-924, 1000-1015, 1069-1093, 1148-1163, 1235-1250, 1261-1278, 1351-1379, 1433-1452, 1529-1550, 1559-1575, 1576-1596, 1600-1624, 1633-1669, 1707-1728, 1746-1783, 2043-2070, 2190-2223, 2256-2338, 2366-2382, 2386-2404, 2412-2451, 2502-2535, 2584-2607, 2615-2648, 2659-2674, 2694-2712, 2739-2774, 2856-2871, 2913-2936, 2986-3019, 3020-3036, 3085-3100, 3110-3125, 3153-3168, 3181-3206, 3272-3294, 3300-3315, 3359-3400, 3401-3416, 3417-3430, 3542-3570, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
+    <t xml:space="preserve">113-137, 160-175, 187-208, 213-231, 247-263, 270-299, 300-327, 382-398, 431-446, 447-468, 538-553, 564-584, 643-794, 858-892, 905-924, 1000-1015, 1069-1093, 1148-1163, 1235-1250, 1261-1278, 1351-1379, 1433-1452, 1529-1550, 1559-1575, 1576-1596, 1600-1624, 1633-1669, 1707-1728, 1746-1783, 2043-2070, 2190-2223, 2256-2338, 2366-2382, 2386-2404, 2412-2451, 2502-2535, 2584-2607, 2615-2648, 2659-2674, 2694-2712, 2739-2774, 2856-2871, 2913-2936, 2986-3019, 3020-3036, 3085-3100, 3110-3125, 3153-3168, 3181-3206, 3272-3294, 3300-3315, 3359-3400, 3401-3430, 3542-3570, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
   </si>
 </sst>
 </file>
@@ -556,23 +556,24 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.9028340080972"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.9959514170041"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="33.7368421052632"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="34.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -629,6 +630,13 @@
       <c r="D2" s="1" t="n">
         <v>20181107</v>
       </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
       <c r="L2" s="1" t="n">
         <v>30</v>
       </c>
@@ -638,6 +646,7 @@
       <c r="N2" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -667,6 +676,8 @@
       <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
       <c r="L3" s="1" t="n">
         <v>30</v>
       </c>
@@ -676,6 +687,7 @@
       <c r="N3" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -690,6 +702,13 @@
       <c r="D4" s="1" t="n">
         <v>20181116</v>
       </c>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
       <c r="L4" s="1" t="n">
         <v>15</v>
       </c>
@@ -699,6 +718,7 @@
       <c r="N4" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -713,6 +733,13 @@
       <c r="D5" s="1" t="n">
         <v>20181119</v>
       </c>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
       <c r="L5" s="1" t="n">
         <v>15</v>
       </c>
@@ -722,6 +749,7 @@
       <c r="N5" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -751,6 +779,8 @@
       <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
       <c r="L6" s="1" t="n">
         <v>15</v>
       </c>
@@ -783,6 +813,11 @@
       <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
       <c r="L7" s="1" t="n">
         <v>15</v>
       </c>
@@ -792,6 +827,7 @@
       <c r="N7" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -812,6 +848,11 @@
       <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
       <c r="L8" s="1" t="n">
         <v>15</v>
       </c>
@@ -821,6 +862,7 @@
       <c r="N8" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -838,12 +880,16 @@
       <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="F9" s="0"/>
       <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
       <c r="L9" s="1" t="n">
         <v>15</v>
       </c>
@@ -879,9 +925,12 @@
       <c r="G10" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="H10" s="0"/>
       <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
       <c r="L10" s="1" t="n">
         <v>15</v>
       </c>
@@ -891,6 +940,7 @@
       <c r="N10" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -908,6 +958,12 @@
       <c r="E11" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
       <c r="L11" s="1" t="n">
         <v>15</v>
       </c>
@@ -917,6 +973,7 @@
       <c r="N11" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -946,6 +1003,8 @@
       <c r="I12" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
       <c r="L12" s="1" t="n">
         <v>15</v>
       </c>
@@ -978,6 +1037,11 @@
       <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
       <c r="L13" s="1" t="n">
         <v>15</v>
       </c>
@@ -987,6 +1051,7 @@
       <c r="N13" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1016,6 +1081,8 @@
       <c r="I14" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
       <c r="L14" s="1" t="n">
         <v>15</v>
       </c>
@@ -1042,9 +1109,15 @@
       <c r="D15" s="1" t="n">
         <v>20181130</v>
       </c>
+      <c r="E15" s="0"/>
       <c r="F15" s="1" t="s">
         <v>66</v>
       </c>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
       <c r="L15" s="1" t="n">
         <v>15</v>
       </c>
@@ -1054,6 +1127,7 @@
       <c r="N15" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -1068,9 +1142,15 @@
       <c r="D16" s="1" t="n">
         <v>20181129</v>
       </c>
+      <c r="E16" s="0"/>
       <c r="F16" s="1" t="s">
         <v>68</v>
       </c>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
       <c r="L16" s="1" t="n">
         <v>15</v>
       </c>
@@ -1080,6 +1160,7 @@
       <c r="N16" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -1094,12 +1175,17 @@
       <c r="D17" s="1" t="n">
         <v>20181130</v>
       </c>
+      <c r="E17" s="0"/>
       <c r="F17" s="1" t="s">
         <v>70</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
       <c r="L17" s="1" t="n">
         <v>15</v>
       </c>
@@ -1109,6 +1195,7 @@
       <c r="N17" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -1135,6 +1222,9 @@
       <c r="H18" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
       <c r="L18" s="1" t="n">
         <v>15</v>
       </c>
@@ -1161,6 +1251,7 @@
       <c r="D19" s="1" t="n">
         <v>20181204</v>
       </c>
+      <c r="E19" s="0"/>
       <c r="F19" s="1" t="s">
         <v>79</v>
       </c>
@@ -1170,6 +1261,9 @@
       <c r="H19" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
       <c r="L19" s="1" t="n">
         <v>15</v>
       </c>
@@ -1179,6 +1273,7 @@
       <c r="N19" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -1193,12 +1288,17 @@
       <c r="D20" s="1" t="n">
         <v>20181206</v>
       </c>
+      <c r="E20" s="0"/>
       <c r="F20" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
       <c r="L20" s="1" t="n">
         <v>15</v>
       </c>
@@ -1231,6 +1331,11 @@
       <c r="F21" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
       <c r="L21" s="1" t="n">
         <v>15</v>
       </c>
@@ -1240,6 +1345,7 @@
       <c r="N21" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -1263,6 +1369,10 @@
       <c r="G22" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
       <c r="L22" s="1" t="n">
         <v>15</v>
       </c>
@@ -1289,12 +1399,17 @@
       <c r="D23" s="1" t="n">
         <v>20181214</v>
       </c>
+      <c r="E23" s="0"/>
       <c r="F23" s="1" t="s">
         <v>95</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
       <c r="L23" s="1" t="n">
         <v>15</v>
       </c>
@@ -1304,6 +1419,7 @@
       <c r="N23" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -1318,12 +1434,17 @@
       <c r="D24" s="1" t="n">
         <v>20181217</v>
       </c>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
       <c r="G24" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="H24" s="0"/>
       <c r="I24" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
       <c r="L24" s="1" t="n">
         <v>15</v>
       </c>
@@ -1333,6 +1454,7 @@
       <c r="N24" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -1353,6 +1475,11 @@
       <c r="F25" s="1" t="s">
         <v>102</v>
       </c>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
       <c r="L25" s="1" t="n">
         <v>15</v>
       </c>
@@ -1362,6 +1489,7 @@
       <c r="N25" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -1391,6 +1519,8 @@
       <c r="I26" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
       <c r="L26" s="1" t="n">
         <v>15</v>
       </c>
@@ -1417,9 +1547,14 @@
       <c r="D27" s="1" t="n">
         <v>20181220</v>
       </c>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
       <c r="G27" s="1" t="s">
         <v>111</v>
       </c>
+      <c r="H27" s="0"/>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
       <c r="L27" s="1" t="n">
         <v>15</v>
       </c>
@@ -1429,6 +1564,7 @@
       <c r="N27" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -1443,6 +1579,12 @@
       <c r="D28" s="1" t="n">
         <v>20181224</v>
       </c>
+      <c r="E28" s="0"/>
+      <c r="F28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
       <c r="L28" s="1" t="n">
         <v>15</v>
       </c>
@@ -1452,6 +1594,7 @@
       <c r="N28" s="1" t="n">
         <v>640</v>
       </c>
+      <c r="O28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -1478,6 +1621,8 @@
       <c r="H29" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
       <c r="L29" s="1" t="n">
         <v>15</v>
       </c>
@@ -1548,6 +1693,8 @@
       <c r="D31" s="1" t="n">
         <v>20181228</v>
       </c>
+      <c r="G31" s="0"/>
+      <c r="H31" s="0"/>
       <c r="L31" s="1" t="n">
         <v>15</v>
       </c>
@@ -1571,6 +1718,8 @@
       <c r="D32" s="1" t="n">
         <v>20181231</v>
       </c>
+      <c r="G32" s="0"/>
+      <c r="H32" s="0"/>
       <c r="L32" s="1" t="n">
         <v>15</v>
       </c>
@@ -1594,6 +1743,8 @@
       <c r="D33" s="1" t="n">
         <v>20190102</v>
       </c>
+      <c r="G33" s="0"/>
+      <c r="H33" s="0"/>
       <c r="L33" s="1" t="n">
         <v>15</v>
       </c>
@@ -1617,6 +1768,8 @@
       <c r="D34" s="1" t="n">
         <v>20190103</v>
       </c>
+      <c r="G34" s="0"/>
+      <c r="H34" s="0"/>
       <c r="L34" s="1" t="n">
         <v>15</v>
       </c>
@@ -1640,6 +1793,8 @@
       <c r="D35" s="1" t="n">
         <v>20190110</v>
       </c>
+      <c r="G35" s="0"/>
+      <c r="H35" s="0"/>
       <c r="L35" s="1" t="n">
         <v>15</v>
       </c>
@@ -1663,6 +1818,8 @@
       <c r="D36" s="1" t="n">
         <v>20190114</v>
       </c>
+      <c r="G36" s="0"/>
+      <c r="H36" s="0"/>
       <c r="L36" s="1" t="n">
         <v>15</v>
       </c>
@@ -1686,6 +1843,8 @@
       <c r="D37" s="1" t="n">
         <v>20190115</v>
       </c>
+      <c r="G37" s="0"/>
+      <c r="H37" s="0"/>
       <c r="L37" s="1" t="n">
         <v>15</v>
       </c>
@@ -1709,6 +1868,8 @@
       <c r="D38" s="1" t="n">
         <v>20190117</v>
       </c>
+      <c r="G38" s="0"/>
+      <c r="H38" s="0"/>
       <c r="L38" s="1" t="n">
         <v>15</v>
       </c>

--- a/data/hh_label.xlsx
+++ b/data/hh_label.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t xml:space="preserve">video_id</t>
   </si>
@@ -34,6 +34,15 @@
     <t xml:space="preserve">surgery</t>
   </si>
   <si>
+    <t xml:space="preserve">surgery/unfold_sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surgery/dispose_sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">surgery/handhygiene</t>
+  </si>
+  <si>
     <t xml:space="preserve">still</t>
   </si>
   <si>
@@ -43,13 +52,22 @@
     <t xml:space="preserve">anesthesia/handhygiene</t>
   </si>
   <si>
+    <t xml:space="preserve">anesthesia/patient_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anesthesia/patient_out</t>
+  </si>
+  <si>
     <t xml:space="preserve">anesthesia/intubation</t>
   </si>
   <si>
-    <t xml:space="preserve">anesthesia/wearing gloves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anesthesia/taking off gloves</t>
+    <t xml:space="preserve">anesthesia/wearing_gloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anesthesia/taking_off_gloves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anesthesia/texting</t>
   </si>
   <si>
     <t xml:space="preserve">fps</t>
@@ -103,13 +121,13 @@
     <t xml:space="preserve">14482-22892, 29851-42057, 79634-87623, 92411-104676</t>
   </si>
   <si>
-    <t xml:space="preserve">29980-30034, 36264-36280, 41995-42057, 94950-94965, 97130-97145</t>
+    <t xml:space="preserve">29980-30034, 36264-36280, 94950-94965, 97130-97145</t>
   </si>
   <si>
     <t xml:space="preserve">36055-36136, 99134-99249</t>
   </si>
   <si>
-    <t xml:space="preserve">33200-33220</t>
+    <t xml:space="preserve">33200-33220,  41995-42057</t>
   </si>
   <si>
     <t xml:space="preserve">6_20181120</t>
@@ -139,7 +157,7 @@
     <t xml:space="preserve">0-18056, 24278-39672</t>
   </si>
   <si>
-    <t xml:space="preserve">1281-1340</t>
+    <t xml:space="preserve">1291-1319</t>
   </si>
   <si>
     <t xml:space="preserve">2431-2484, 17971-18056</t>
@@ -409,18 +427,147 @@
     <t xml:space="preserve">31_20181231</t>
   </si>
   <si>
+    <t xml:space="preserve">2005-17778, 26812-50299, 63693-88399, 107771-120340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3941-3977, 4034-4057, 28955-28983, 29130-29170, 65567-65597, 109166-109179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17694-17778, 50226-50299, 88314-88399, 120324-120340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21004-23340, 53878-58126, 90277-104755, 122473-752097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-2004, 17779-21003, 23341-26811, 50300-53877, 58126-63692, 88400-90276, 104756-107770, 120341-122472, 752098-754667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23341-23370, 58167-58190, 59705-59715, 59749-59761, 59774-59802, 63676-63692, 105917-105933, 121358-121380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23403-23529, 58126-58147, 58244-58321, 104756-104877, 752098-752111, 753558-753595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20951-21003, 53831-53877, 90246-90276, 122428-122472</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1191-1400, 26149-26208, 107107-107221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">179-218, 19965-19988, 25175-25209, 53543-53629, 59954-59995, 62897-62917, 105489-105510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105393-105411, 122415-122427</t>
+  </si>
+  <si>
     <t xml:space="preserve">32_20190102</t>
   </si>
   <si>
+    <t xml:space="preserve">0-21819, 30577-52026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31353-31376, 31717-31750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21742-21819, 51987-52026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24018-28633, 53354-54697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21820-24017, 28634-30576, 52027-53353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23757-23764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28634-28831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23977-24017, 53324-53353</t>
+  </si>
+  <si>
     <t xml:space="preserve">33_20190103</t>
   </si>
   <si>
     <t xml:space="preserve">34_20190110</t>
   </si>
   <si>
+    <t xml:space="preserve">2324-12437, 33488-46844, 67766-86709, 113494-141779, 202176-246092, 276018-285950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121835-121962, 203305-203369, 280665-280740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">141653-141779, 246093-246378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19282-25868, 54139-60326, 98070-103838, 150537-192704, 257231-263617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-2323, 12438-19281, 25869-33487, 46845-54138, 60327-67765, 86710-98069, 103839-113493, 141779-150536, 192705-202175, 246379-257230, 263618-276017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60785-60813, 93678-93712, 93943-94039, 94061-94172, 103839-103880, 110304-110368, 200890-200944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25869-26263, 60327-60784, 104802-105335, 192705-193165, 263618-264043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19110-19281, 53798-54138, 97905-98069, 150397-150536, 257052-257230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-2081, 31518-31776, 66161-66401, 111213-111658, 199040-199250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">794-813, 858-893, 13933-14062, 27142-27183, 27367-27456, 47847-47906, 61876-61923, 62125-62241, 67149-67245, 195716-195755, 196122-196208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">844-852, 12438-12460, 27275-27290, 112231-112257, 113215-113252, 195847-195864, 200302-200328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28974-29047, 29174-29408, 31273-31479, 50000-50126, 50250-50264, 50973-51011, 51047-51158, 248347-248470, 266202-266403</t>
+  </si>
+  <si>
     <t xml:space="preserve">35_20190114</t>
   </si>
   <si>
+    <t xml:space="preserve">9633-27290, 50115-89228, 117104-138195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14452-14522, 55585-55675, 56448-56500, 119214-119268, 120360-120387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27239-27290, 89147-89228, 138044-138195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3326-3363, 11954-12012, 47790-47853, 114774-114791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36444-41668, 99052-104031, 145911-163228, 163477-208461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9632, 27291-36443, 41669-50114, 89229-99051, 104032-117103, 138196-145910, 163229-163476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41669-41932, 104032-104237, 163229-163476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">36262-36443, 98998-99051, 145843-145910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47436-47633</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1478-1550, 1605-1666, 43844-43891, 44083-44160, 99126-99173, 140176-140256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43987-44010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49674-49841, 98648-98707, 105455-105512</t>
+  </si>
+  <si>
     <t xml:space="preserve">36_20190115</t>
   </si>
   <si>
@@ -434,6 +581,183 @@
   </si>
   <si>
     <t xml:space="preserve">113-137, 160-175, 187-208, 213-231, 247-263, 270-299, 300-327, 382-398, 431-446, 447-468, 538-553, 564-584, 643-794, 858-892, 905-924, 1000-1015, 1069-1093, 1148-1163, 1235-1250, 1261-1278, 1351-1379, 1433-1452, 1529-1550, 1559-1575, 1576-1596, 1600-1624, 1633-1669, 1707-1728, 1746-1783, 2043-2070, 2190-2223, 2256-2338, 2366-2382, 2386-2404, 2412-2451, 2502-2535, 2584-2607, 2615-2648, 2659-2674, 2694-2712, 2739-2774, 2856-2871, 2913-2936, 2986-3019, 3020-3036, 3085-3100, 3110-3125, 3153-3168, 3181-3206, 3272-3294, 3300-3315, 3359-3400, 3401-3430, 3542-3570, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39_20190208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48-62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40_20190208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-6846, 12581-19999, 26537-30310, 36486-42491, 49511-73164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12940-12969, 26931-26981, 50485-50515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6790-6824, 19802-19866, 30269-30310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9565-10682, 22713-24442, 44510-46267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6847-9564, 10683-12580, 20000-22712, 24443-26536, 30311-36485, 42492-44509, 46268-49510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11810-11829, 12549-12580, 26493-26536, 46403-46427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24746-24850, 34100-34257, 46903-47031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8724-8753, 22033-22069, 32006-32060, 44041-44117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35534-35582, 48797-48846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11317-11335, 30763-30797, 42215-42236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41_20190211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-11046, 15451-31171, 161395-163889, 170000-192036, 196951-222429, 230188-259730, 414845-489151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16400-16431, 176129-176180, 199600-199640, 199922-199954, 230342-230367, 415846-415875, 423187-423217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11034-11046, 31135-31171, 191999-192036, 222392-222429, 259625-259730, 418753-418821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12679-14462, 31961-157324, 165853-167537, 193175-195574, 223762-227199, 264015-410740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11047-12678, 14463-15450, 31172-31960, 157325-161394, 163889-165852, 167538-169999, 192037-193176, 195575-196950, 222430-223761, 227200-230187, 259731-264014, 410741-414844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411270-411291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11047-12678, 14463-15450, 31172-31960, 157325-157460, 167537-167723, 195575-195640, 227200-227580, 410741-410974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12655-12678, 31900-31960, 165804-165852, 193130-193174, 223739-223761, 263928-264008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15326-15345, 168920-168954, 412399-412453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14784-14803, 163889-163896, 263566-265385, 411325-411340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">264008-264014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42_20190214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1596-7169, 12437-16668, 18869-25528, 31013-32879, 37612-42226, 54737-58057, 66134-80494, 175794-200281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1870-1900, 21328-21359, 21569-21587, 31027-31056, 55645-55668, 68853-68859, 177079-177109, 177284-177308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7150-7169, 25480-25528, 32831-32879, 58027-58057, 80433-80494, 200188-200281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21054-21084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8625-10280, 17531-18868, 26235-29300, 34362-36150, 43559-53140, 59475-64851, 83956-173982, 200618-201206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-1595, 7170-8624, 10281-12436, 16669-17530, 25529-26234, 29301-31012, 32880-34361, 36151-37611, 42227-43558, 53141-54736, 58058-59474, 64852-64934, 64852-66133, 80495-83955, 173983-175793, 200282-200617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30513-30532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10281-10368, 18869-18899, 29301-29392, 36151-36230, 53141-53281, 173983-174074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8582-8624, 17502-17530, 26205-26234, 34329-34361, 43541-43558, 59462-59474, 83919-83955, 200592-200617</t>
+  </si>
+  <si>
+    <t xml:space="preserve">415-445, 8421-8436, 10683-10720, 16669-16691, 33913-33939, 42227-42239, 53611-53648, 58246-58272, 65197-65224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8870-8880</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43_20190218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44_20190222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4562-15270, 17512-38534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5386-5425, 5566-5580, 19625-19648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14072-14078, 38452-38534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-657, 15271-16529, 39496-40151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">658-4561, 14079-15270, 16530-17511, 38535-39495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">658-810, 16530-16611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15230-15270, 39434-39495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45_20190227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-2585, 11402-31570, 45100-72138, 80727-117906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12702-12749, 13240-13273, 46649-46688, 47134-47156, 82628-82654, 83709-83725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">31571-31695, 71965-72138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79712-79762</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5295-8182, 35029-40684, 73943-76855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2586-5294, 8183-11401, 31696-35028, 40685-45099, 72139-73942, 76856-80726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8183-8355, 40685-40868, 76856-76998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5239-5294, 34980-35028, 73921-73942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43965-44020, 79480-79550</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34623-34634, 42768-42779, 78204- 78248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79822-79843</t>
   </si>
 </sst>
 </file>
@@ -524,7 +848,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -535,6 +859,18 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -554,22 +890,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="34.0647773279352"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.9271255060729"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -616,6 +953,24 @@
       <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
@@ -625,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>20181107</v>
@@ -637,16 +992,22 @@
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O2" s="0"/>
+      <c r="S2" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T2" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -656,38 +1017,44 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>20181112</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
+      <c r="H3" s="0"/>
       <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="0"/>
-      <c r="K3" s="0"/>
-      <c r="L3" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="0"/>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
+      <c r="R3" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="M3" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O3" s="0"/>
+      <c r="S3" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -697,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>20181116</v>
@@ -709,16 +1076,22 @@
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
-      <c r="L4" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M4" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
       <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S4" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T4" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -728,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>20181119</v>
@@ -740,16 +1113,22 @@
       <c r="I5" s="0"/>
       <c r="J5" s="0"/>
       <c r="K5" s="0"/>
-      <c r="L5" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M5" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L5" s="0"/>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
       <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
+      <c r="R5" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -759,39 +1138,45 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>20181119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
       <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="0"/>
-      <c r="K6" s="0"/>
-      <c r="L6" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M6" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,32 +1187,38 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>20181120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
-      <c r="L7" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M7" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -837,32 +1228,38 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>20181121</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
+      <c r="I8" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
-      <c r="L8" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M8" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -872,35 +1269,41 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>20181122</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F9" s="0"/>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
       <c r="I9" s="0"/>
-      <c r="J9" s="0"/>
-      <c r="K9" s="0"/>
-      <c r="L9" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M9" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>40</v>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -911,36 +1314,42 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>20181123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="0"/>
+        <v>49</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K10" s="0"/>
-      <c r="L10" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>640</v>
+      <c r="L10" s="0"/>
+      <c r="M10" s="0"/>
+      <c r="N10" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -950,13 +1359,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>20181123</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F11" s="0"/>
       <c r="G11" s="0"/>
@@ -964,16 +1373,22 @@
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="L11" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -983,39 +1398,45 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>20181126</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
+      <c r="H12" s="0"/>
       <c r="I12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M12" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,32 +1447,38 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>20181127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
+      <c r="I13" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
-      <c r="L13" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N13" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
@@ -1061,39 +1488,45 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>20181129</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
       <c r="I14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M14" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,30 +1537,36 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>20181130</v>
       </c>
       <c r="E15" s="0"/>
-      <c r="F15" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
+      <c r="I15" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="L15" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -1137,30 +1576,36 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>20181129</v>
       </c>
       <c r="E16" s="0"/>
-      <c r="F16" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="F16" s="0"/>
       <c r="G16" s="0"/>
       <c r="H16" s="0"/>
-      <c r="I16" s="0"/>
+      <c r="I16" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
-      <c r="L16" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M16" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
       <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -1170,32 +1615,38 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>20181130</v>
       </c>
       <c r="E17" s="0"/>
-      <c r="F17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
       <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
+      <c r="I17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K17" s="0"/>
-      <c r="L17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
@@ -1205,37 +1656,43 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>20181203</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O18" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1246,34 +1703,40 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>20181204</v>
       </c>
       <c r="E19" s="0"/>
-      <c r="F19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -1283,33 +1746,39 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>20181206</v>
       </c>
       <c r="E20" s="0"/>
-      <c r="F20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
       <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
+      <c r="I20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="K20" s="0"/>
-      <c r="L20" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>85</v>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1320,32 +1789,38 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>20181207</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
+      <c r="I21" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
-      <c r="L21" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
       <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -1355,35 +1830,41 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>20181211</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>92</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
       <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="0"/>
+      <c r="I22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="K22" s="0"/>
-      <c r="L22" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>93</v>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1394,32 +1875,38 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>20181214</v>
       </c>
       <c r="E23" s="0"/>
-      <c r="F23" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
       <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="0"/>
+      <c r="I23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="K23" s="0"/>
-      <c r="L23" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
       <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -1429,32 +1916,38 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>20181217</v>
       </c>
       <c r="E24" s="0"/>
       <c r="F24" s="0"/>
-      <c r="G24" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="G24" s="0"/>
       <c r="H24" s="0"/>
-      <c r="I24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="K24" s="0"/>
-      <c r="L24" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>640</v>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -1464,32 +1957,38 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>20181218</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
+      <c r="I25" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
-      <c r="L25" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
       <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -1499,39 +1998,45 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>20181219</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>107</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
       <c r="I26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M26" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U26" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1542,29 +2047,36 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>20181220</v>
       </c>
       <c r="E27" s="0"/>
       <c r="F27" s="0"/>
-      <c r="G27" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="G27" s="0"/>
       <c r="H27" s="0"/>
-      <c r="J27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="1" t="s">
+        <v>117</v>
+      </c>
       <c r="K27" s="0"/>
-      <c r="L27" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M27" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L27" s="0"/>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
       <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -1574,7 +2086,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>20181224</v>
@@ -1583,18 +2095,25 @@
       <c r="F28" s="0"/>
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
-      <c r="L28" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M28" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>640</v>
-      </c>
+      <c r="L28" s="0"/>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
       <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -1604,36 +2123,43 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>20181226</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" s="0"/>
-      <c r="K29" s="0"/>
-      <c r="L29" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M29" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N29" s="1" t="n">
-        <v>640</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L29" s="0"/>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1644,40 +2170,47 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>20181227</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M30" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N30" s="1" t="n">
-        <v>640</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1688,20 +2221,31 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>20181228</v>
       </c>
+      <c r="E31" s="0"/>
+      <c r="F31" s="0"/>
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
-      <c r="L31" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M31" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N31" s="1" t="n">
+      <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
+      <c r="K31" s="0"/>
+      <c r="L31" s="0"/>
+      <c r="M31" s="0"/>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
+      <c r="R31" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T31" s="1" t="n">
         <v>640</v>
       </c>
     </row>
@@ -1713,20 +2257,53 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>20181231</v>
       </c>
-      <c r="G32" s="0"/>
+      <c r="E32" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>137</v>
+      </c>
       <c r="H32" s="0"/>
-      <c r="L32" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M32" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N32" s="1" t="n">
+      <c r="I32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q32" s="0"/>
+      <c r="R32" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T32" s="1" t="n">
         <v>640</v>
       </c>
     </row>
@@ -1738,20 +2315,47 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>20190102</v>
       </c>
-      <c r="G33" s="0"/>
+      <c r="E33" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>149</v>
+      </c>
       <c r="H33" s="0"/>
-      <c r="L33" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M33" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N33" s="1" t="n">
+      <c r="I33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="N33" s="0"/>
+      <c r="O33" s="0"/>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
+      <c r="R33" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T33" s="1" t="n">
         <v>640</v>
       </c>
     </row>
@@ -1763,24 +2367,35 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>20190103</v>
       </c>
+      <c r="E34" s="0"/>
+      <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
-      <c r="L34" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M34" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
+      <c r="L34" s="0"/>
+      <c r="M34" s="0"/>
+      <c r="N34" s="0"/>
+      <c r="O34" s="0"/>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
+      <c r="R34" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>33</v>
       </c>
@@ -1788,24 +2403,59 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>20190110</v>
       </c>
-      <c r="G35" s="0"/>
+      <c r="E35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>159</v>
+      </c>
       <c r="H35" s="0"/>
-      <c r="L35" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M35" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I35" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="O35" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="P35" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="R35" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S35" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>34</v>
       </c>
@@ -1813,20 +2463,55 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>20190114</v>
       </c>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="L36" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M36" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N36" s="1" t="n">
+      <c r="E36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" s="0"/>
+      <c r="L36" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="N36" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="O36" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="P36" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q36" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T36" s="1" t="n">
         <v>640</v>
       </c>
     </row>
@@ -1838,20 +2523,31 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>20190115</v>
       </c>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
       <c r="G37" s="0"/>
       <c r="H37" s="0"/>
-      <c r="L37" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M37" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N37" s="1" t="n">
+      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
+      <c r="L37" s="0"/>
+      <c r="M37" s="0"/>
+      <c r="N37" s="0"/>
+      <c r="O37" s="0"/>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
+      <c r="R37" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T37" s="1" t="n">
         <v>640</v>
       </c>
     </row>
@@ -1863,20 +2559,31 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>20190117</v>
       </c>
+      <c r="E38" s="0"/>
+      <c r="F38" s="0"/>
       <c r="G38" s="0"/>
       <c r="H38" s="0"/>
-      <c r="L38" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M38" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N38" s="1" t="n">
+      <c r="I38" s="0"/>
+      <c r="J38" s="0"/>
+      <c r="K38" s="0"/>
+      <c r="L38" s="0"/>
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="R38" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S38" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T38" s="1" t="n">
         <v>640</v>
       </c>
     </row>
@@ -1888,25 +2595,325 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>20190119</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L39" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="M39" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>640</v>
+      <c r="E39" s="0"/>
+      <c r="F39" s="0"/>
+      <c r="G39" s="0"/>
+      <c r="H39" s="0"/>
+      <c r="I39" s="0"/>
+      <c r="J39" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L39" s="0"/>
+      <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="R39" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="S39" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T39" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>20190208</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="G40" s="0"/>
+      <c r="H40" s="0"/>
+      <c r="I40" s="0"/>
+      <c r="J40" s="0"/>
+      <c r="K40" s="0"/>
+      <c r="L40" s="0"/>
+      <c r="M40" s="0"/>
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D41" s="1" t="n">
+        <v>20190208</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" s="0"/>
+      <c r="I41" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="1" t="n">
+        <v>20190211</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" s="0"/>
+      <c r="I42" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="1" t="n">
+        <v>20190214</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N43" s="0"/>
+      <c r="O43" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="1" t="n">
+        <v>20190218</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="0"/>
+      <c r="G44" s="0"/>
+      <c r="H44" s="0"/>
+      <c r="I44" s="0"/>
+      <c r="J44" s="0"/>
+      <c r="L44" s="0"/>
+      <c r="M44" s="0"/>
+      <c r="N44" s="0"/>
+      <c r="O44" s="0"/>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>20190222</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="H45" s="0"/>
+      <c r="I45" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="N45" s="0"/>
+      <c r="O45" s="0"/>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>20190227</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/data/hh_label.xlsx
+++ b/data/hh_label.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -442,7 +442,7 @@
     <t xml:space="preserve">0-2004, 17779-21003, 23341-26811, 50300-53877, 58126-63692, 88400-90276, 104756-107770, 120341-122472, 752098-754667</t>
   </si>
   <si>
-    <t xml:space="preserve">23341-23370, 58167-58190, 59705-59715, 59749-59761, 59774-59802, 63676-63692, 105917-105933, 121358-121380</t>
+    <t xml:space="preserve">23341-23370, 58167-58190, 59705-59715, 59749-59761, 59774-59802, 62897-62917, 63676-63692, 105917-105933, 121358-121380</t>
   </si>
   <si>
     <t xml:space="preserve">23403-23529, 58126-58147, 58244-58321, 104756-104877, 752098-752111, 753558-753595</t>
@@ -454,7 +454,7 @@
     <t xml:space="preserve">1191-1400, 26149-26208, 107107-107221</t>
   </si>
   <si>
-    <t xml:space="preserve">179-218, 19965-19988, 25175-25209, 53543-53629, 59954-59995, 62897-62917, 105489-105510</t>
+    <t xml:space="preserve">179-218, 19965-19988, 25175-25209, 53543-53629, 59954-59995, 105489-105510</t>
   </si>
   <si>
     <t xml:space="preserve">105393-105411, 122415-122427</t>
@@ -655,7 +655,7 @@
     <t xml:space="preserve">15326-15345, 168920-168954, 412399-412453</t>
   </si>
   <si>
-    <t xml:space="preserve">14784-14803, 163889-163896, 263566-265385, 411325-411340</t>
+    <t xml:space="preserve">14784-14803, 163889-163896, 263566-263585, 411325-411340</t>
   </si>
   <si>
     <t xml:space="preserve">264008-264014</t>
@@ -892,20 +892,20 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/data/hh_label.xlsx
+++ b/data/hh_label.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t xml:space="preserve">video_id</t>
   </si>
@@ -91,15 +91,15 @@
     <t xml:space="preserve">6051-35070</t>
   </si>
   <si>
+    <t xml:space="preserve">1686-1708</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-66</t>
   </si>
   <si>
     <t xml:space="preserve">67-6050, 35071-39568</t>
   </si>
   <si>
-    <t xml:space="preserve">1686-1708</t>
-  </si>
-  <si>
     <t xml:space="preserve">4520-4625</t>
   </si>
   <si>
@@ -115,21 +115,21 @@
     <t xml:space="preserve">70-14481, 42058-79633, 104677-182457</t>
   </si>
   <si>
+    <t xml:space="preserve">33200-33220,  36264-36280, 41995-42057, 97130-97145</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-69, 22893-29850, 87624-92410</t>
   </si>
   <si>
     <t xml:space="preserve">14482-22892, 29851-42057, 79634-87623, 92411-104676</t>
   </si>
   <si>
-    <t xml:space="preserve">29980-30034, 36264-36280, 94950-94965, 97130-97145</t>
+    <t xml:space="preserve">30007-30034, 94950-94965</t>
   </si>
   <si>
     <t xml:space="preserve">36055-36136, 99134-99249</t>
   </si>
   <si>
-    <t xml:space="preserve">33200-33220,  41995-42057</t>
-  </si>
-  <si>
     <t xml:space="preserve">6_20181120</t>
   </si>
   <si>
@@ -157,7 +157,7 @@
     <t xml:space="preserve">0-18056, 24278-39672</t>
   </si>
   <si>
-    <t xml:space="preserve">1291-1319</t>
+    <t xml:space="preserve">1281-1340</t>
   </si>
   <si>
     <t xml:space="preserve">2431-2484, 17971-18056</t>
@@ -190,15 +190,15 @@
     <t xml:space="preserve">10256-71427, 103000-143578, 175901-193400</t>
   </si>
   <si>
+    <t xml:space="preserve">1541-1564, 1574-1600, 7443-7465, 10185-10200, 10229-10252</t>
+  </si>
+  <si>
     <t xml:space="preserve">80760-87484, 149781-169900, 197705-210789</t>
   </si>
   <si>
     <t xml:space="preserve">0-10255, 71428-80759, 87485-102999, 143579-149780, 169901-175900, 193401-197704</t>
   </si>
   <si>
-    <t xml:space="preserve">1541-1564, 1574-1600, 7443-7465, 10185-10200, 10229-10252</t>
-  </si>
-  <si>
     <t xml:space="preserve">3147-3290, 95550-95752, 175026-175061</t>
   </si>
   <si>
@@ -262,13 +262,16 @@
     <t xml:space="preserve">20287-45094, 70686-128088, 162542-287700</t>
   </si>
   <si>
+    <t xml:space="preserve">7680-7703</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-4299, 54870-60183, 134437-146931, 291596-297523</t>
   </si>
   <si>
     <t xml:space="preserve">4300-20286, 45095-54869, 60184-70685, 128089-134436, 146932-162541, 287701-291595</t>
   </si>
   <si>
-    <t xml:space="preserve">7680-7703, 12203-12223, 63984-64005, 64016-64031, 161323-161342</t>
+    <t xml:space="preserve">12203-12223, 63984-64005, 64016-64031, 161323-161342</t>
   </si>
   <si>
     <t xml:space="preserve">64170-64229</t>
@@ -277,15 +280,15 @@
     <t xml:space="preserve">18_20181204</t>
   </si>
   <si>
+    <t xml:space="preserve">6385-6417</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-58, 4674-6384, 6420-6586, 14568-15758</t>
   </si>
   <si>
     <t xml:space="preserve">59-4673, 6587-14567</t>
   </si>
   <si>
-    <t xml:space="preserve">6385-6417</t>
-  </si>
-  <si>
     <t xml:space="preserve">19_20181206</t>
   </si>
   <si>
@@ -355,15 +358,15 @@
     <t xml:space="preserve">16522-24925, 35738-187900, 198081-313612</t>
   </si>
   <si>
+    <t xml:space="preserve">15048-15111</t>
+  </si>
+  <si>
     <t xml:space="preserve">187901-198080, 324086-385743</t>
   </si>
   <si>
     <t xml:space="preserve">0-16521, 24926-35737, 313612-324085, 385744-385781</t>
   </si>
   <si>
-    <t xml:space="preserve">15048-15111</t>
-  </si>
-  <si>
     <t xml:space="preserve">2048-2144</t>
   </si>
   <si>
@@ -385,13 +388,16 @@
     <t xml:space="preserve">0-8279, 31376-45463</t>
   </si>
   <si>
+    <t xml:space="preserve">31214-31229</t>
+  </si>
+  <si>
     <t xml:space="preserve">12445-23489, 45464-45509</t>
   </si>
   <si>
     <t xml:space="preserve">8280-12444, 23490-31375</t>
   </si>
   <si>
-    <t xml:space="preserve">23555-23570, 31214-31229</t>
+    <t xml:space="preserve">23555-23570</t>
   </si>
   <si>
     <t xml:space="preserve">26919-26938, 27304-27321</t>
@@ -403,16 +409,16 @@
     <t xml:space="preserve">8651-58190, 80861-102440, 133518-146154, 170144-183635, 199339-255023</t>
   </si>
   <si>
+    <t xml:space="preserve">60221-60239</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-46, 65112-72372, 108896-126113, 154165-162067, 164085-170143, 183636-188559</t>
   </si>
   <si>
     <t xml:space="preserve">47-8650, 58191-65111, 72373-80860, 102441-108895, 126114-133517, 146155-154164, 162068-164084, 188560-199338</t>
   </si>
   <si>
-    <t xml:space="preserve">60221-60239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190067-190089, 197935-198137</t>
+    <t xml:space="preserve">190067-190089, 197973-197993, 198101-198124</t>
   </si>
   <si>
     <t xml:space="preserve">193001-193023</t>
@@ -478,9 +484,6 @@
     <t xml:space="preserve">21820-24017, 28634-30576, 52027-53353</t>
   </si>
   <si>
-    <t xml:space="preserve">23757-23764</t>
-  </si>
-  <si>
     <t xml:space="preserve">28634-28831</t>
   </si>
   <si>
@@ -559,7 +562,7 @@
     <t xml:space="preserve">47436-47633</t>
   </si>
   <si>
-    <t xml:space="preserve">1478-1550, 1605-1666, 43844-43891, 44083-44160, 99126-99173, 140176-140256</t>
+    <t xml:space="preserve">1478-1550, 1605-1666, 43844-43891, 44083-44160, 99126-99173, 140189-140256</t>
   </si>
   <si>
     <t xml:space="preserve">43987-44010</t>
@@ -580,7 +583,7 @@
     <t xml:space="preserve">0-7001</t>
   </si>
   <si>
-    <t xml:space="preserve">113-137, 160-175, 187-208, 213-231, 247-263, 270-299, 300-327, 382-398, 431-446, 447-468, 538-553, 564-584, 643-794, 858-892, 905-924, 1000-1015, 1069-1093, 1148-1163, 1235-1250, 1261-1278, 1351-1379, 1433-1452, 1529-1550, 1559-1575, 1576-1596, 1600-1624, 1633-1669, 1707-1728, 1746-1783, 2043-2070, 2190-2223, 2256-2338, 2366-2382, 2386-2404, 2412-2451, 2502-2535, 2584-2607, 2615-2648, 2659-2674, 2694-2712, 2739-2774, 2856-2871, 2913-2936, 2986-3019, 3020-3036, 3085-3100, 3110-3125, 3153-3168, 3181-3206, 3272-3294, 3300-3315, 3359-3400, 3401-3430, 3542-3570, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
+    <t xml:space="preserve">109-145, 159-178, 187-208, 213-231, 247-263, 270-299, 300-327, 382-397, 431-446, 447-468, 538-576, 592-610, 640-797, 858-892, 911-926, 1004-1013, 1069-1092, 1096-1104, 1149-1164, 1233-1249, 1260-1280, 1352-1380, 1432-1453, 1529-1550, 1553-1573, 1576-1596, 1600-1624, 1630-1674, 1652-1668, 1707-1728, 1749-1785, 2027-2083, 2154-2173, 2191-2198, 2255-2342, 2353-2380, 2381-2405, 2412-2458, 2468-2479, 2503-2540, 2588-2608, 2613-2628, 2629-2649, 2658-2675, 2696-2712, 2743-2774, 2839-2846, 2859-2871, 2915-2937, 2986-3036, 3113-3120, 3152-3159, 3199-3206, 3273-3293, 3303-3315, 3359-3400, 3401-3433, 3544-3573, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
   </si>
   <si>
     <t xml:space="preserve">39_20190208</t>
@@ -610,7 +613,7 @@
     <t xml:space="preserve">6847-9564, 10683-12580, 20000-22712, 24443-26536, 30311-36485, 42492-44509, 46268-49510</t>
   </si>
   <si>
-    <t xml:space="preserve">11810-11829, 12549-12580, 26493-26536, 46403-46427</t>
+    <t xml:space="preserve">12549-12580, 26493-26536, 46403-46427</t>
   </si>
   <si>
     <t xml:space="preserve">24746-24850, 34100-34257, 46903-47031</t>
@@ -673,7 +676,7 @@
     <t xml:space="preserve">7150-7169, 25480-25528, 32831-32879, 58027-58057, 80433-80494, 200188-200281</t>
   </si>
   <si>
-    <t xml:space="preserve">21054-21084</t>
+    <t xml:space="preserve">21055-21084</t>
   </si>
   <si>
     <t xml:space="preserve">8625-10280, 17531-18868, 26235-29300, 34362-36150, 43559-53140, 59475-64851, 83956-173982, 200618-201206</t>
@@ -767,7 +770,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -791,11 +794,25 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -848,28 +865,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,6 +903,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3C3C3C"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -892,24 +973,25 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -972,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
@@ -1009,7 +1091,7 @@
       </c>
       <c r="U2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
@@ -1027,16 +1109,16 @@
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="1" t="s">
@@ -1056,7 +1138,7 @@
       </c>
       <c r="U3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
@@ -1093,7 +1175,7 @@
       </c>
       <c r="U4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
@@ -1130,7 +1212,7 @@
       </c>
       <c r="U5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
@@ -1148,20 +1230,22 @@
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="0"/>
       <c r="P6" s="0"/>
@@ -1175,11 +1259,9 @@
       <c r="T6" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
@@ -1220,7 +1302,7 @@
       </c>
       <c r="U7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
@@ -1261,7 +1343,7 @@
       </c>
       <c r="U8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
@@ -1306,7 +1388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
@@ -1351,7 +1433,7 @@
       </c>
       <c r="U10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
@@ -1390,7 +1472,7 @@
       </c>
       <c r="U11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
@@ -1408,16 +1490,16 @@
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="1" t="s">
@@ -1439,7 +1521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -1480,7 +1562,7 @@
       </c>
       <c r="U13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
@@ -1529,7 +1611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
@@ -1568,7 +1650,7 @@
       </c>
       <c r="U15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
@@ -1607,7 +1689,7 @@
       </c>
       <c r="U16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
@@ -1648,7 +1730,7 @@
       </c>
       <c r="U17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
@@ -1666,15 +1748,17 @@
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+      <c r="H18" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
@@ -1692,10 +1776,10 @@
         <v>640</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
@@ -1703,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>20181204</v>
@@ -1711,16 +1795,16 @@
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="H19" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -1738,7 +1822,7 @@
       </c>
       <c r="U19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
@@ -1746,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>20181206</v>
@@ -1756,10 +1840,10 @@
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
@@ -1778,10 +1862,10 @@
         <v>640</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
@@ -1789,19 +1873,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>20181207</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -1822,7 +1906,7 @@
       </c>
       <c r="U21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>20</v>
       </c>
@@ -1830,22 +1914,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>20181211</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
@@ -1864,10 +1948,10 @@
         <v>640</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>21</v>
       </c>
@@ -1875,7 +1959,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>20181214</v>
@@ -1885,10 +1969,10 @@
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
@@ -1908,7 +1992,7 @@
       </c>
       <c r="U23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>22</v>
       </c>
@@ -1916,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>20181217</v>
@@ -1927,13 +2011,13 @@
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O24" s="0"/>
       <c r="P24" s="0"/>
@@ -1949,7 +2033,7 @@
       </c>
       <c r="U24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>23</v>
       </c>
@@ -1957,19 +2041,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>20181218</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -1990,7 +2074,7 @@
       </c>
       <c r="U25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>24</v>
       </c>
@@ -1998,30 +2082,30 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>20181219</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
+      <c r="H26" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
@@ -2036,10 +2120,10 @@
         <v>640</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>25</v>
       </c>
@@ -2047,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>20181220</v>
@@ -2058,7 +2142,7 @@
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
@@ -2078,7 +2162,7 @@
       </c>
       <c r="U27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>26</v>
       </c>
@@ -2086,7 +2170,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>20181224</v>
@@ -2115,7 +2199,7 @@
       </c>
       <c r="U28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>27</v>
       </c>
@@ -2123,25 +2207,27 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>20181226</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
+      <c r="H29" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
@@ -2159,10 +2245,10 @@
         <v>640</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>28</v>
       </c>
@@ -2170,34 +2256,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>20181227</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
+      <c r="H30" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K30" s="0"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
       <c r="O30" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q30" s="0"/>
       <c r="R30" s="1" t="n">
@@ -2210,10 +2296,10 @@
         <v>640</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>29</v>
       </c>
@@ -2221,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>20181228</v>
@@ -2249,7 +2335,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>30</v>
       </c>
@@ -2257,44 +2343,44 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>20181231</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="0" t="s">
         <v>137</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="K32" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="J32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="K32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="L32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O32" s="0" t="s">
+      <c r="M32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P32" s="0" t="s">
+      <c r="N32" s="1" t="s">
         <v>145</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="Q32" s="0"/>
       <c r="R32" s="1" t="n">
@@ -2307,7 +2393,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>31</v>
       </c>
@@ -2315,35 +2401,33 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>20190102</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>149</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="0" t="s">
         <v>152</v>
       </c>
+      <c r="J33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" s="0"/>
       <c r="L33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M33" s="0" t="s">
         <v>154</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
@@ -2359,7 +2443,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>32</v>
       </c>
@@ -2367,7 +2451,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>20190103</v>
@@ -2403,47 +2487,47 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>20190110</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J35" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="J35" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M35" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="M35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O35" s="0" t="s">
+      <c r="N35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P35" s="0" t="s">
+      <c r="O35" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q35" s="0" t="s">
+      <c r="P35" s="1" t="s">
         <v>168</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="R35" s="1" t="n">
         <v>15</v>
@@ -2463,47 +2547,47 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>20190114</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="H36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="I36" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="J36" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="K36" s="0"/>
-      <c r="L36" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="M36" s="0" t="s">
+      <c r="L36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N36" s="0" t="s">
+      <c r="M36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O36" s="0" t="s">
+      <c r="N36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P36" s="0" t="s">
+      <c r="O36" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q36" s="0" t="s">
+      <c r="P36" s="1" t="s">
         <v>181</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="R36" s="1" t="n">
         <v>15</v>
@@ -2523,7 +2607,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>20190115</v>
@@ -2540,7 +2624,6 @@
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
       <c r="R37" s="1" t="n">
         <v>15</v>
       </c>
@@ -2551,7 +2634,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>36</v>
       </c>
@@ -2559,7 +2642,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>20190117</v>
@@ -2576,7 +2659,6 @@
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
       <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
       <c r="R38" s="1" t="n">
         <v>15</v>
       </c>
@@ -2587,7 +2669,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>37</v>
       </c>
@@ -2595,7 +2677,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>20190119</v>
@@ -2606,17 +2688,16 @@
       <c r="H39" s="0"/>
       <c r="I39" s="0"/>
       <c r="J39" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
       <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
       <c r="R39" s="1" t="n">
         <v>15</v>
       </c>
@@ -2627,7 +2708,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>38</v>
       </c>
@@ -2635,16 +2716,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>20190208</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="0" t="s">
         <v>189</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
@@ -2656,9 +2737,17 @@
       <c r="N40" s="0"/>
       <c r="O40" s="0"/>
       <c r="P40" s="0"/>
-      <c r="Q40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R40" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>39</v>
       </c>
@@ -2666,46 +2755,54 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>20190208</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H41" s="0"/>
       <c r="I41" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K41" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="K41" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="L41" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O41" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="O41" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R41" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>40</v>
       </c>
@@ -2713,48 +2810,56 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>20190211</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H42" s="0"/>
       <c r="I42" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O42" s="0" t="s">
         <v>211</v>
       </c>
+      <c r="O42" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="P42" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>41</v>
       </c>
@@ -2762,48 +2867,56 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>20190214</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>214</v>
+      <c r="E43" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N43" s="0"/>
       <c r="O43" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>42</v>
       </c>
@@ -2811,12 +2924,12 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>20190218</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
@@ -2827,9 +2940,17 @@
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
       <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R44" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T44" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>43</v>
       </c>
@@ -2837,39 +2958,47 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>20190222</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H45" s="0"/>
       <c r="I45" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N45" s="0"/>
       <c r="O45" s="0"/>
       <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R45" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>44</v>
       </c>
@@ -2877,43 +3006,52 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>20190227</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/data/hh_label.xlsx
+++ b/data/hh_label.xlsx
@@ -157,7 +157,7 @@
     <t xml:space="preserve">0-18056, 24278-39672</t>
   </si>
   <si>
-    <t xml:space="preserve">1281-1340</t>
+    <t xml:space="preserve">1291-1319</t>
   </si>
   <si>
     <t xml:space="preserve">2431-2484, 17971-18056</t>
@@ -583,7 +583,7 @@
     <t xml:space="preserve">0-7001</t>
   </si>
   <si>
-    <t xml:space="preserve">109-145, 159-178, 187-208, 213-231, 247-263, 270-299, 300-327, 382-397, 431-446, 447-468, 538-576, 592-610, 640-797, 858-892, 911-926, 1004-1013, 1069-1092, 1096-1104, 1149-1164, 1233-1249, 1260-1280, 1352-1380, 1432-1453, 1529-1550, 1553-1573, 1576-1596, 1600-1624, 1630-1674, 1652-1668, 1707-1728, 1749-1785, 2027-2083, 2154-2173, 2191-2198, 2255-2342, 2353-2380, 2381-2405, 2412-2458, 2468-2479, 2503-2540, 2588-2608, 2613-2628, 2629-2649, 2658-2675, 2696-2712, 2743-2774, 2839-2846, 2859-2871, 2915-2937, 2986-3036, 3113-3120, 3152-3159, 3199-3206, 3273-3293, 3303-3315, 3359-3400, 3401-3433, 3544-3573, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
+    <t xml:space="preserve">109-145, 159-178, 187-208, 213-231, 247-263, 270-299, 300-327, 382-397, 431-446, 447-468, 538-576, 592-610, 640-797, 858-892, 911-926, 1004-1013, 1069-1092, 1096-1104, 1149-1164, 1233-1249, 1260-1280, 1352-1380, 1432-1453, 1529-1550, 1553-1573, 1576-1596, 1600-1624, 1630-1674, 1707-1728, 1749-1785, 2027-2083, 2154-2173, 2191-2198, 2255-2342, 2353-2380, 2381-2405, 2412-2458, 2468-2479, 2503-2540, 2588-2608, 2613-2628, 2629-2649, 2658-2675, 2696-2712, 2743-2774, 2839-2846, 2859-2871, 2915-2937, 2986-3036, 3113-3120, 3152-3159, 3199-3206, 3273-3293, 3303-3315, 3359-3400, 3401-3433, 3544-3573, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
   </si>
   <si>
     <t xml:space="preserve">39_20190208</t>
@@ -974,7 +974,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E32" activeCellId="0" sqref="E32"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="U8" s="0"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>7</v>
       </c>

--- a/data/hh_label.xlsx
+++ b/data/hh_label.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t xml:space="preserve">video_id</t>
   </si>
@@ -91,15 +91,15 @@
     <t xml:space="preserve">6051-35070</t>
   </si>
   <si>
+    <t xml:space="preserve">1686-1708</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-66</t>
   </si>
   <si>
     <t xml:space="preserve">67-6050, 35071-39568</t>
   </si>
   <si>
-    <t xml:space="preserve">1686-1708</t>
-  </si>
-  <si>
     <t xml:space="preserve">4520-4625</t>
   </si>
   <si>
@@ -115,21 +115,21 @@
     <t xml:space="preserve">70-14481, 42058-79633, 104677-182457</t>
   </si>
   <si>
+    <t xml:space="preserve">33200-33220,  36264-36280, 41995-42057, 97130-97145</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-69, 22893-29850, 87624-92410</t>
   </si>
   <si>
     <t xml:space="preserve">14482-22892, 29851-42057, 79634-87623, 92411-104676</t>
   </si>
   <si>
-    <t xml:space="preserve">29980-30034, 36264-36280, 94950-94965, 97130-97145</t>
+    <t xml:space="preserve">30007-30034, 94950-94965</t>
   </si>
   <si>
     <t xml:space="preserve">36055-36136, 99134-99249</t>
   </si>
   <si>
-    <t xml:space="preserve">33200-33220,  41995-42057</t>
-  </si>
-  <si>
     <t xml:space="preserve">6_20181120</t>
   </si>
   <si>
@@ -190,15 +190,15 @@
     <t xml:space="preserve">10256-71427, 103000-143578, 175901-193400</t>
   </si>
   <si>
+    <t xml:space="preserve">1541-1564, 1574-1600, 7443-7465, 10185-10200, 10229-10252</t>
+  </si>
+  <si>
     <t xml:space="preserve">80760-87484, 149781-169900, 197705-210789</t>
   </si>
   <si>
     <t xml:space="preserve">0-10255, 71428-80759, 87485-102999, 143579-149780, 169901-175900, 193401-197704</t>
   </si>
   <si>
-    <t xml:space="preserve">1541-1564, 1574-1600, 7443-7465, 10185-10200, 10229-10252</t>
-  </si>
-  <si>
     <t xml:space="preserve">3147-3290, 95550-95752, 175026-175061</t>
   </si>
   <si>
@@ -262,13 +262,16 @@
     <t xml:space="preserve">20287-45094, 70686-128088, 162542-287700</t>
   </si>
   <si>
+    <t xml:space="preserve">7680-7703</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-4299, 54870-60183, 134437-146931, 291596-297523</t>
   </si>
   <si>
     <t xml:space="preserve">4300-20286, 45095-54869, 60184-70685, 128089-134436, 146932-162541, 287701-291595</t>
   </si>
   <si>
-    <t xml:space="preserve">7680-7703, 12203-12223, 63984-64005, 64016-64031, 161323-161342</t>
+    <t xml:space="preserve">12203-12223, 63984-64005, 64016-64031, 161323-161342</t>
   </si>
   <si>
     <t xml:space="preserve">64170-64229</t>
@@ -277,15 +280,15 @@
     <t xml:space="preserve">18_20181204</t>
   </si>
   <si>
+    <t xml:space="preserve">6385-6417</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-58, 4674-6384, 6420-6586, 14568-15758</t>
   </si>
   <si>
     <t xml:space="preserve">59-4673, 6587-14567</t>
   </si>
   <si>
-    <t xml:space="preserve">6385-6417</t>
-  </si>
-  <si>
     <t xml:space="preserve">19_20181206</t>
   </si>
   <si>
@@ -355,15 +358,15 @@
     <t xml:space="preserve">16522-24925, 35738-187900, 198081-313612</t>
   </si>
   <si>
+    <t xml:space="preserve">15048-15111</t>
+  </si>
+  <si>
     <t xml:space="preserve">187901-198080, 324086-385743</t>
   </si>
   <si>
     <t xml:space="preserve">0-16521, 24926-35737, 313612-324085, 385744-385781</t>
   </si>
   <si>
-    <t xml:space="preserve">15048-15111</t>
-  </si>
-  <si>
     <t xml:space="preserve">2048-2144</t>
   </si>
   <si>
@@ -385,13 +388,16 @@
     <t xml:space="preserve">0-8279, 31376-45463</t>
   </si>
   <si>
+    <t xml:space="preserve">31214-31229</t>
+  </si>
+  <si>
     <t xml:space="preserve">12445-23489, 45464-45509</t>
   </si>
   <si>
     <t xml:space="preserve">8280-12444, 23490-31375</t>
   </si>
   <si>
-    <t xml:space="preserve">23555-23570, 31214-31229</t>
+    <t xml:space="preserve">23555-23570</t>
   </si>
   <si>
     <t xml:space="preserve">26919-26938, 27304-27321</t>
@@ -403,16 +409,16 @@
     <t xml:space="preserve">8651-58190, 80861-102440, 133518-146154, 170144-183635, 199339-255023</t>
   </si>
   <si>
+    <t xml:space="preserve">60221-60239</t>
+  </si>
+  <si>
     <t xml:space="preserve">0-46, 65112-72372, 108896-126113, 154165-162067, 164085-170143, 183636-188559</t>
   </si>
   <si>
     <t xml:space="preserve">47-8650, 58191-65111, 72373-80860, 102441-108895, 126114-133517, 146155-154164, 162068-164084, 188560-199338</t>
   </si>
   <si>
-    <t xml:space="preserve">60221-60239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190067-190089, 197935-198137</t>
+    <t xml:space="preserve">190067-190089, 197973-197993, 198101-198124</t>
   </si>
   <si>
     <t xml:space="preserve">193001-193023</t>
@@ -478,9 +484,6 @@
     <t xml:space="preserve">21820-24017, 28634-30576, 52027-53353</t>
   </si>
   <si>
-    <t xml:space="preserve">23757-23764</t>
-  </si>
-  <si>
     <t xml:space="preserve">28634-28831</t>
   </si>
   <si>
@@ -559,7 +562,7 @@
     <t xml:space="preserve">47436-47633</t>
   </si>
   <si>
-    <t xml:space="preserve">1478-1550, 1605-1666, 43844-43891, 44083-44160, 99126-99173, 140176-140256</t>
+    <t xml:space="preserve">1478-1550, 1605-1666, 43844-43891, 44083-44160, 99126-99173, 140189-140256</t>
   </si>
   <si>
     <t xml:space="preserve">43987-44010</t>
@@ -580,7 +583,7 @@
     <t xml:space="preserve">0-7001</t>
   </si>
   <si>
-    <t xml:space="preserve">113-137, 160-175, 187-208, 213-231, 247-263, 270-299, 300-327, 382-398, 431-446, 447-468, 538-553, 564-584, 643-794, 858-892, 905-924, 1000-1015, 1069-1093, 1148-1163, 1235-1250, 1261-1278, 1351-1379, 1433-1452, 1529-1550, 1559-1575, 1576-1596, 1600-1624, 1633-1669, 1707-1728, 1746-1783, 2043-2070, 2190-2223, 2256-2338, 2366-2382, 2386-2404, 2412-2451, 2502-2535, 2584-2607, 2615-2648, 2659-2674, 2694-2712, 2739-2774, 2856-2871, 2913-2936, 2986-3019, 3020-3036, 3085-3100, 3110-3125, 3153-3168, 3181-3206, 3272-3294, 3300-3315, 3359-3400, 3401-3430, 3542-3570, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
+    <t xml:space="preserve">109-145, 159-178, 187-208, 213-231, 247-263, 270-299, 300-327, 382-397, 431-446, 447-468, 538-576, 592-610, 640-797, 858-892, 911-926, 1004-1013, 1069-1092, 1096-1104, 1149-1164, 1233-1249, 1260-1280, 1352-1380, 1432-1453, 1529-1550, 1553-1573, 1576-1596, 1600-1624, 1630-1674, 1707-1728, 1749-1785, 2027-2083, 2154-2173, 2191-2198, 2255-2342, 2353-2380, 2381-2405, 2412-2458, 2468-2479, 2503-2540, 2588-2608, 2613-2628, 2629-2649, 2658-2675, 2696-2712, 2743-2774, 2839-2846, 2859-2871, 2915-2937, 2986-3036, 3113-3120, 3152-3159, 3199-3206, 3273-3293, 3303-3315, 3359-3400, 3401-3433, 3544-3573, 3589-3604, 3766-3802, 3847-3862, 3896-3916, 3940-3960, 4034-4070, 4283-4298, 4411-4445, 4758-4782, 5327-5354, 5471-5490, 5507-5522, 5575-5591, 5759-5780, 5795-5811, 5853-5868, 5919-5934, 5935-5960, 6019-6050, 6077-6092, 6222-6246, 6438-6453, 6587-6612, 6667-6684, 6768-6787, 6793-6808</t>
   </si>
   <si>
     <t xml:space="preserve">39_20190208</t>
@@ -610,7 +613,7 @@
     <t xml:space="preserve">6847-9564, 10683-12580, 20000-22712, 24443-26536, 30311-36485, 42492-44509, 46268-49510</t>
   </si>
   <si>
-    <t xml:space="preserve">11810-11829, 12549-12580, 26493-26536, 46403-46427</t>
+    <t xml:space="preserve">12549-12580, 26493-26536, 46403-46427</t>
   </si>
   <si>
     <t xml:space="preserve">24746-24850, 34100-34257, 46903-47031</t>
@@ -673,7 +676,7 @@
     <t xml:space="preserve">7150-7169, 25480-25528, 32831-32879, 58027-58057, 80433-80494, 200188-200281</t>
   </si>
   <si>
-    <t xml:space="preserve">21054-21084</t>
+    <t xml:space="preserve">21055-21084</t>
   </si>
   <si>
     <t xml:space="preserve">8625-10280, 17531-18868, 26235-29300, 34362-36150, 43559-53140, 59475-64851, 83956-173982, 200618-201206</t>
@@ -767,7 +770,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -791,11 +794,25 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF3C3C3C"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -848,28 +865,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -882,6 +903,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF3C3C3C"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -892,24 +973,25 @@
   </sheetPr>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.92712550607287"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.89068825910931"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -972,7 +1054,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
@@ -1009,7 +1091,7 @@
       </c>
       <c r="U2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
@@ -1027,16 +1109,16 @@
       </c>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="K3" s="0"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="1" t="s">
@@ -1056,7 +1138,7 @@
       </c>
       <c r="U3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
@@ -1093,7 +1175,7 @@
       </c>
       <c r="U4" s="0"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
@@ -1130,7 +1212,7 @@
       </c>
       <c r="U5" s="0"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
@@ -1148,20 +1230,22 @@
       </c>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
       <c r="N6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="0"/>
       <c r="P6" s="0"/>
@@ -1175,11 +1259,9 @@
       <c r="T6" s="1" t="n">
         <v>640</v>
       </c>
-      <c r="U6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
@@ -1220,7 +1302,7 @@
       </c>
       <c r="U7" s="0"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
@@ -1306,7 +1388,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>8</v>
       </c>
@@ -1351,7 +1433,7 @@
       </c>
       <c r="U10" s="0"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
@@ -1390,7 +1472,7 @@
       </c>
       <c r="U11" s="0"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
@@ -1408,16 +1490,16 @@
       </c>
       <c r="F12" s="0"/>
       <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="I12" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="K12" s="0"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="1" t="s">
@@ -1439,7 +1521,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>11</v>
       </c>
@@ -1480,7 +1562,7 @@
       </c>
       <c r="U13" s="0"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>12</v>
       </c>
@@ -1529,7 +1611,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>13</v>
       </c>
@@ -1568,7 +1650,7 @@
       </c>
       <c r="U15" s="0"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>14</v>
       </c>
@@ -1607,7 +1689,7 @@
       </c>
       <c r="U16" s="0"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>15</v>
       </c>
@@ -1648,7 +1730,7 @@
       </c>
       <c r="U17" s="0"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>16</v>
       </c>
@@ -1666,15 +1748,17 @@
       </c>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
+      <c r="H18" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="I18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
@@ -1692,10 +1776,10 @@
         <v>640</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>17</v>
       </c>
@@ -1703,7 +1787,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>20181204</v>
@@ -1711,16 +1795,16 @@
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
       <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="H19" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I19" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="K19" s="0"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -1738,7 +1822,7 @@
       </c>
       <c r="U19" s="0"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>18</v>
       </c>
@@ -1746,7 +1830,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>20181206</v>
@@ -1756,10 +1840,10 @@
       <c r="G20" s="0"/>
       <c r="H20" s="0"/>
       <c r="I20" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
@@ -1778,10 +1862,10 @@
         <v>640</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>19</v>
       </c>
@@ -1789,19 +1873,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>20181207</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
       <c r="H21" s="0"/>
       <c r="I21" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
@@ -1822,7 +1906,7 @@
       </c>
       <c r="U21" s="0"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>20</v>
       </c>
@@ -1830,22 +1914,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>20181211</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
       <c r="H22" s="0"/>
       <c r="I22" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
@@ -1864,10 +1948,10 @@
         <v>640</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>21</v>
       </c>
@@ -1875,7 +1959,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>20181214</v>
@@ -1885,10 +1969,10 @@
       <c r="G23" s="0"/>
       <c r="H23" s="0"/>
       <c r="I23" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
@@ -1908,7 +1992,7 @@
       </c>
       <c r="U23" s="0"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>22</v>
       </c>
@@ -1916,7 +2000,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>20181217</v>
@@ -1927,13 +2011,13 @@
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
       <c r="J24" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O24" s="0"/>
       <c r="P24" s="0"/>
@@ -1949,7 +2033,7 @@
       </c>
       <c r="U24" s="0"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>23</v>
       </c>
@@ -1957,19 +2041,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>20181218</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="0"/>
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
@@ -1990,7 +2074,7 @@
       </c>
       <c r="U25" s="0"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>24</v>
       </c>
@@ -1998,30 +2082,30 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>20181219</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F26" s="0"/>
       <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
+      <c r="H26" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>113</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="K26" s="0"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
@@ -2036,10 +2120,10 @@
         <v>640</v>
       </c>
       <c r="U26" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>25</v>
       </c>
@@ -2047,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>20181220</v>
@@ -2058,7 +2142,7 @@
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
       <c r="J27" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K27" s="0"/>
       <c r="L27" s="0"/>
@@ -2078,7 +2162,7 @@
       </c>
       <c r="U27" s="0"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>26</v>
       </c>
@@ -2086,7 +2170,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>20181224</v>
@@ -2115,7 +2199,7 @@
       </c>
       <c r="U28" s="0"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>27</v>
       </c>
@@ -2123,25 +2207,27 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>20181226</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F29" s="0"/>
       <c r="G29" s="0"/>
-      <c r="H29" s="0"/>
+      <c r="H29" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="I29" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
@@ -2159,10 +2245,10 @@
         <v>640</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>28</v>
       </c>
@@ -2170,34 +2256,34 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>20181227</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F30" s="0"/>
       <c r="G30" s="0"/>
-      <c r="H30" s="0"/>
+      <c r="H30" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="I30" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K30" s="0"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
       <c r="O30" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q30" s="0"/>
       <c r="R30" s="1" t="n">
@@ -2210,10 +2296,10 @@
         <v>640</v>
       </c>
       <c r="U30" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>29</v>
       </c>
@@ -2221,7 +2307,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>20181228</v>
@@ -2249,7 +2335,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>30</v>
       </c>
@@ -2257,44 +2343,44 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>20181231</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G32" s="0" t="s">
         <v>137</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="K32" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="J32" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="K32" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="N32" s="0" t="s">
+      <c r="L32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="O32" s="0" t="s">
+      <c r="M32" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="P32" s="0" t="s">
+      <c r="N32" s="1" t="s">
         <v>145</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="Q32" s="0"/>
       <c r="R32" s="1" t="n">
@@ -2307,7 +2393,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>31</v>
       </c>
@@ -2315,35 +2401,33 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>20190102</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="E33" s="1" t="s">
         <v>149</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="H33" s="0"/>
       <c r="I33" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="K33" s="0" t="s">
         <v>152</v>
       </c>
+      <c r="J33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" s="0"/>
       <c r="L33" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="M33" s="0" t="s">
         <v>154</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
@@ -2359,7 +2443,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>32</v>
       </c>
@@ -2367,7 +2451,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>20190103</v>
@@ -2403,47 +2487,47 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>20190110</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F35" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="F35" s="1" t="s">
         <v>159</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="H35" s="0"/>
       <c r="I35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J35" s="0" t="s">
         <v>161</v>
       </c>
+      <c r="J35" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="K35" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="M35" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="N35" s="0" t="s">
+      <c r="M35" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="O35" s="0" t="s">
+      <c r="N35" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="P35" s="0" t="s">
+      <c r="O35" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="Q35" s="0" t="s">
+      <c r="P35" s="1" t="s">
         <v>168</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="R35" s="1" t="n">
         <v>15</v>
@@ -2463,47 +2547,47 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>20190114</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="F36" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="H36" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J36" s="4" t="s">
+      <c r="I36" s="1" t="s">
         <v>175</v>
       </c>
+      <c r="J36" s="5" t="s">
+        <v>176</v>
+      </c>
       <c r="K36" s="0"/>
-      <c r="L36" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="M36" s="0" t="s">
+      <c r="L36" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N36" s="0" t="s">
+      <c r="M36" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O36" s="0" t="s">
+      <c r="N36" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="P36" s="0" t="s">
+      <c r="O36" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="Q36" s="0" t="s">
+      <c r="P36" s="1" t="s">
         <v>181</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="R36" s="1" t="n">
         <v>15</v>
@@ -2523,7 +2607,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>20190115</v>
@@ -2540,7 +2624,6 @@
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
       <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
       <c r="R37" s="1" t="n">
         <v>15</v>
       </c>
@@ -2551,7 +2634,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>36</v>
       </c>
@@ -2559,7 +2642,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>20190117</v>
@@ -2576,7 +2659,6 @@
       <c r="N38" s="0"/>
       <c r="O38" s="0"/>
       <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
       <c r="R38" s="1" t="n">
         <v>15</v>
       </c>
@@ -2587,7 +2669,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>37</v>
       </c>
@@ -2595,7 +2677,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>20190119</v>
@@ -2606,17 +2688,16 @@
       <c r="H39" s="0"/>
       <c r="I39" s="0"/>
       <c r="J39" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
       <c r="O39" s="0"/>
       <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
       <c r="R39" s="1" t="n">
         <v>15</v>
       </c>
@@ -2627,7 +2708,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>38</v>
       </c>
@@ -2635,16 +2716,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>20190208</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="0" t="s">
         <v>189</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="G40" s="0"/>
       <c r="H40" s="0"/>
@@ -2656,9 +2737,17 @@
       <c r="N40" s="0"/>
       <c r="O40" s="0"/>
       <c r="P40" s="0"/>
-      <c r="Q40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R40" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S40" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="T40" s="1" t="n">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>39</v>
       </c>
@@ -2666,46 +2755,54 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>20190208</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H41" s="0"/>
       <c r="I41" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K41" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="K41" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="L41" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="O41" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="O41" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R41" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S41" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T41" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>40</v>
       </c>
@@ -2713,48 +2810,56 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>20190211</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H42" s="0"/>
       <c r="I42" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="O42" s="0" t="s">
         <v>211</v>
       </c>
+      <c r="O42" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="P42" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+      <c r="R42" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S42" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T42" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>41</v>
       </c>
@@ -2762,48 +2867,56 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>20190214</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>214</v>
+      <c r="E43" s="6" t="s">
+        <v>215</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N43" s="0"/>
       <c r="O43" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P43" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>225</v>
+      </c>
+      <c r="R43" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S43" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T43" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>42</v>
       </c>
@@ -2811,12 +2924,12 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>20190218</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="6"/>
       <c r="F44" s="0"/>
       <c r="G44" s="0"/>
       <c r="H44" s="0"/>
@@ -2827,9 +2940,17 @@
       <c r="N44" s="0"/>
       <c r="O44" s="0"/>
       <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R44" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S44" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T44" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>43</v>
       </c>
@@ -2837,39 +2958,47 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>20190222</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H45" s="0"/>
       <c r="I45" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N45" s="0"/>
       <c r="O45" s="0"/>
       <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R45" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S45" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T45" s="1" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>44</v>
       </c>
@@ -2877,43 +3006,52 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>20190227</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="R46" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="S46" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="T46" s="1" t="n">
+        <v>640</v>
       </c>
     </row>
   </sheetData>

--- a/data/hh_label.xlsx
+++ b/data/hh_label.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -448,7 +448,7 @@
     <t xml:space="preserve">0-2004, 17779-21003, 23341-26811, 50300-53877, 58126-63692, 88400-90276, 104756-107770, 120341-122472, 752098-754667</t>
   </si>
   <si>
-    <t xml:space="preserve">23341-23370, 58167-58190, 59705-59715, 59749-59761, 59774-59802, 62897-62917, 63676-63692, 105917-105933, 121358-121380</t>
+    <t xml:space="preserve">23341-23370, 58167-58190, 59749-59761, 59774-59802, 62897-62917, 63676-63692, 105917-105933, 121358-121380</t>
   </si>
   <si>
     <t xml:space="preserve">23403-23529, 58126-58147, 58244-58321, 104756-104877, 752098-752111, 753558-753595</t>
@@ -974,20 +974,20 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="K32" activeCellId="0" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="1" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="1" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="1" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
